--- a/specs_mw_one_scenario.xlsx
+++ b/specs_mw_one_scenario.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.esa\Documents\GitHub\GEP-Working-dir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ScenarioInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="ScenarioParameters" sheetId="2" r:id="rId2"/>
-    <sheet name="SpecsData" sheetId="3" r:id="rId3"/>
-    <sheet name="SpecsDataCalib" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ScenarioInfo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ScenarioParameters" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecsData" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecsDataCalib" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecsDataCalib1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Scenario</t>
   </si>
@@ -39,6 +35,9 @@
     <t>Grid_electricity_generation_cost</t>
   </si>
   <si>
+    <t>PV_cost_adjust</t>
+  </si>
+  <si>
     <t>Diesel_price</t>
   </si>
   <si>
@@ -60,9 +59,15 @@
     <t>5YearTarget</t>
   </si>
   <si>
+    <t>GridConnectionsLimitThousands</t>
+  </si>
+  <si>
     <t>GridGenerationCost</t>
   </si>
   <si>
+    <t>PV_Cost_adjust</t>
+  </si>
+  <si>
     <t>DieselPrice</t>
   </si>
   <si>
@@ -72,6 +77,9 @@
     <t>PrioritizationAlgorithm</t>
   </si>
   <si>
+    <t>AutoIntensificationKM</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -126,6 +134,9 @@
     <t>MaxGridExtensionDist</t>
   </si>
   <si>
+    <t>NewGridGenerationCapacityAnnualLimitMW</t>
+  </si>
+  <si>
     <t>ElecActual</t>
   </si>
   <si>
@@ -166,59 +177,48 @@
   </si>
   <si>
     <t>mw</t>
-  </si>
-  <si>
-    <t>PV_cost_adjust</t>
-  </si>
-  <si>
-    <t>PV_Cost_adjust</t>
-  </si>
-  <si>
-    <t>NewGridGenerationCapacityAnnualLimitMW</t>
-  </si>
-  <si>
-    <t>AutoIntensificationKM</t>
-  </si>
-  <si>
-    <t>GridConnectionsLimitThousands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -256,38 +256,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -553,27 +554,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="8"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="17"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="32.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="26"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="28"/>
+    <col customWidth="1" max="6" min="6" width="14.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="10.85546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="22.140625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="20.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,631 +595,852 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+    <row r="2" spans="1:9">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="17.28515625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="14.85546875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="11"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="16.5703125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" width="19.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:12">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.48</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>9999</v>
       </c>
-      <c r="G2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="H2">
+      <c r="G2" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>99</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:12">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.48</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>109</v>
       </c>
-      <c r="G3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H3">
+      <c r="G3" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.25</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>99</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:12">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="46" width="9.140625" style="2" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="8"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="12.5703125"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="8.140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="12.5703125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="19.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="12.28515625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="20"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="15.42578125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="18.5703125"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="2" width="22.140625"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="2" width="23"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="2" width="26.85546875"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="2" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" style="2" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="17" min="17" style="2" width="20.42578125"/>
+    <col bestFit="1" customWidth="1" max="18" min="18" style="2" width="21.140625"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="2" width="40.28515625"/>
+    <col bestFit="1" customWidth="1" max="20" min="20" style="2" width="10.140625"/>
+    <col bestFit="1" customWidth="1" max="21" min="21" style="2" width="15.5703125"/>
+    <col bestFit="1" customWidth="1" max="22" min="22" style="2" width="16.42578125"/>
+    <col bestFit="1" customWidth="1" max="23" min="23" style="2" width="13.42578125"/>
+    <col customWidth="1" max="24" min="24" style="2" width="12.140625"/>
+    <col customWidth="1" max="25" min="25" style="2" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" max="26" min="26" style="2" width="14.7109375"/>
+    <col bestFit="1" customWidth="1" max="27" min="27" style="2" width="11.28515625"/>
+    <col bestFit="1" customWidth="1" max="28" min="28" style="2" width="12.140625"/>
+    <col bestFit="1" customWidth="1" max="29" min="29" style="2" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" max="31" min="30" style="2" width="20"/>
+    <col customWidth="1" max="46" min="32" style="2" width="9.140625"/>
+    <col customWidth="1" max="16384" min="47" style="2" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="n">
         <v>18620000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="2" t="n">
         <v>30000000</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="n">
         <v>26600000</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="2" t="n">
         <v>4.5</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="2" t="n">
         <v>1874</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="U2" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
+      <c r="U2" s="2" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="2" t="n">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="C2" t="n">
         <v>2018</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>2030</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>18620000</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.17</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>2000</v>
       </c>
-      <c r="H2">
-        <v>0.16093946035233631</v>
-      </c>
-      <c r="I2">
-        <v>26858617.899999999</v>
-      </c>
-      <c r="J2">
-        <v>26026616.100000001</v>
-      </c>
-      <c r="K2">
+      <c r="H2" t="n">
+        <v>0.1609394603523363</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26858617.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26026616.1</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.2</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>4.3</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>4.5</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>1874</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>0.1</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>0.1</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>50</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>0.11</v>
       </c>
-      <c r="U2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="V2">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="W2">
+      <c r="U2" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.1100000000000001</v>
       </c>
-      <c r="X2">
-        <v>0.51041122056486954</v>
-      </c>
-      <c r="Y2">
-        <v>3.3197477760316702E-2</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="X2" t="n">
+        <v>0.5104112205648695</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0331974777603167</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>1</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>5000</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18620000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1609394603523363</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26600000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1874</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>300</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.5104112205648691</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.03319747776031669</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>